--- a/Documentation/Burndown Chart Sprint 2 Complete.xlsx
+++ b/Documentation/Burndown Chart Sprint 2 Complete.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -43,9 +43,6 @@
     <t>Doctors Authentication Database</t>
   </si>
   <si>
-    <t>Nurse Authentication Database</t>
-  </si>
-  <si>
     <t>Doctors Authentication GUI</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Documentation and Programming Outline</t>
+  </si>
+  <si>
+    <t>Database Relationships</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -474,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nurse Authentication Database</c:v>
+                  <c:v>Database Relationships</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -959,7 +959,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$8</c:f>
@@ -1087,8 +1087,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89438848"/>
-        <c:axId val="89448832"/>
+        <c:axId val="-1693574576"/>
+        <c:axId val="-1693571856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1398,7 +1398,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89438848"/>
+        <c:axId val="-1693574576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89448832"/>
+        <c:crossAx val="-1693571856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89448832"/>
+        <c:axId val="-1693571856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89438848"/>
+        <c:crossAx val="-1693574576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1547,7 +1547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,7 +1582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1794,12 +1794,13 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1922,7 +1923,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
@@ -1972,7 +1973,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -2022,7 +2023,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -2072,7 +2073,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
